--- a/cypress/fixtures/Import Assets.xlsx
+++ b/cypress/fixtures/Import Assets.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\QA - Lokesh\Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assets_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE913F8-7956-4301-A514-58C6E8C9EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA6827-8EB3-4417-A7BD-46F5000F1B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{674F9039-9668-4F27-B699-83396AE62F35}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{674F9039-9668-4F27-B699-83396AE62F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="17">
   <si>
     <t>Benz</t>
   </si>
@@ -82,6 +84,9 @@
   </si>
   <si>
     <t>APRDEM111</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
@@ -441,16 +446,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDFAD17-4C69-4908-8270-F6083012E233}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -470,7 +475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,7 +495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -507,7 +512,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -524,7 +529,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -541,7 +546,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -558,7 +563,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -575,7 +580,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -592,7 +597,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -609,7 +614,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -626,7 +631,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -647,4 +652,316 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D8000-1A68-482C-9DCD-1BF01E4266BB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC5E099-BDBB-4363-BAB5-2F5CF7A61949}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cypress/fixtures/Import Assets.xlsx
+++ b/cypress/fixtures/Import Assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assets_Automation\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lokesh.p\Desktop\Assets_Automation\Assets_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA6827-8EB3-4417-A7BD-46F5000F1B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907F5D3-B9E4-43CE-B7EB-BD52527F4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{674F9039-9668-4F27-B699-83396AE62F35}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{674F9039-9668-4F27-B699-83396AE62F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="22">
   <si>
     <t>Benz</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>MAKE</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -450,12 +465,12 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -475,7 +490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -495,7 +510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -512,7 +527,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -529,7 +544,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -546,7 +561,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -563,7 +578,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -580,7 +595,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -597,7 +612,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -614,7 +629,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -631,7 +646,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -656,40 +671,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D8000-1A68-482C-9DCD-1BF01E4266BB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -698,9 +715,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -715,9 +732,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -732,9 +749,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -749,9 +766,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -766,9 +783,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -783,9 +800,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -800,9 +817,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -817,9 +834,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -834,9 +851,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -848,6 +865,23 @@
         <v>16</v>
       </c>
       <c r="E11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
         <v>2025</v>
       </c>
     </row>
@@ -860,20 +894,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC5E099-BDBB-4363-BAB5-2F5CF7A61949}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -881,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -889,7 +923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -897,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -905,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -913,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -921,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -929,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -937,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -945,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -953,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
